--- a/biology/Médecine/Hépatites_virales_considérées_comme_maladies_professionnelles/Hépatites_virales_considérées_comme_maladies_professionnelles.xlsx
+++ b/biology/Médecine/Hépatites_virales_considérées_comme_maladies_professionnelles/Hépatites_virales_considérées_comme_maladies_professionnelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9patites_virales_consid%C3%A9r%C3%A9es_comme_maladies_professionnelles</t>
+          <t>Hépatites_virales_considérées_comme_maladies_professionnelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L‘hépatite virale est reconnue en France comme maladie professionnelle quand elle répond à certains critères administratifs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9patites_virales_consid%C3%A9r%C3%A9es_comme_maladies_professionnelles</t>
+          <t>Hépatites_virales_considérées_comme_maladies_professionnelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,11 @@
           <t>Régime général en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Régime agricole
 </t>
         </is>
       </c>
@@ -525,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9patites_virales_consid%C3%A9r%C3%A9es_comme_maladies_professionnelles</t>
+          <t>Hépatites_virales_considérées_comme_maladies_professionnelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,15 +553,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Régime général en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hépatites_virales_considérées_comme_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9patites_virales_consid%C3%A9r%C3%A9es_comme_maladies_professionnelles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Données médicales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant la découverte du vaccin contre l'hépatite B en 1975 par Philippe Maupas (1939-1981) et son équipe de la Faculté de médecine de Tours, cette maladie professionnelle faisait des ravages chez les professionnels de santé[3]. Aujourd’hui son incidence a diminué de façon spectaculaire, mais 2 % des hépatite B concernent des professionnels de santé[4]. Après accident d'exposition au sang, lorsque le patient est porteur du virus le risque de contamination pour le soignant (non immunisé) est de 30 % [5]
-Par contre l’hépatite C contre laquelle il n’existe aucun vaccin commence à devenir préoccupante dans le même secteur professionnel. Après accident d'exposition au sang, lorsque le patient est porteur du virus le risque de contamination pour le soignant est de 3 % [5]
-L’hépatite A qui est une maladie bénigne tend à devenir moins fréquente dans les pays équipés d’un réseau de stations d’épuration performant. Le risque de contamination pour le personnel soignant est faible[6].
-Depuis le début de l’année 2007 on note l’apparition en Europe de l’hépatite E autrefois confinée en Asie. La maladie est transmise par les porcs et pourrait de venir un risque professionnel pour le personnel des abattoirs[7],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant la découverte du vaccin contre l'hépatite B en 1975 par Philippe Maupas (1939-1981) et son équipe de la Faculté de médecine de Tours, cette maladie professionnelle faisait des ravages chez les professionnels de santé. Aujourd’hui son incidence a diminué de façon spectaculaire, mais 2 % des hépatite B concernent des professionnels de santé. Après accident d'exposition au sang, lorsque le patient est porteur du virus le risque de contamination pour le soignant (non immunisé) est de 30 % 
+Par contre l’hépatite C contre laquelle il n’existe aucun vaccin commence à devenir préoccupante dans le même secteur professionnel. Après accident d'exposition au sang, lorsque le patient est porteur du virus le risque de contamination pour le soignant est de 3 % 
+L’hépatite A qui est une maladie bénigne tend à devenir moins fréquente dans les pays équipés d’un réseau de stations d’épuration performant. Le risque de contamination pour le personnel soignant est faible.
+Depuis le début de l’année 2007 on note l’apparition en Europe de l’hépatite E autrefois confinée en Asie. La maladie est transmise par les porcs et pourrait de venir un risque professionnel pour le personnel des abattoirs,.
 </t>
         </is>
       </c>
